--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Kitl-Kit.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Kitl-Kit.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>206.926473</v>
+        <v>147.0057066666667</v>
       </c>
       <c r="H2">
-        <v>620.779419</v>
+        <v>441.01712</v>
       </c>
       <c r="I2">
-        <v>0.8815216823402787</v>
+        <v>0.8587975787179232</v>
       </c>
       <c r="J2">
-        <v>0.8815216823402787</v>
+        <v>0.8587975787179231</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.596449</v>
+        <v>19.38942866666667</v>
       </c>
       <c r="N2">
-        <v>73.78934699999999</v>
+        <v>58.16828600000001</v>
       </c>
       <c r="O2">
-        <v>0.9486446866357434</v>
+        <v>0.9489681539286383</v>
       </c>
       <c r="P2">
-        <v>0.9486446866357433</v>
+        <v>0.9489681539286383</v>
       </c>
       <c r="Q2">
-        <v>5089.656439894376</v>
+        <v>2850.356663006258</v>
       </c>
       <c r="R2">
-        <v>45806.90795904939</v>
+        <v>25653.20996705632</v>
       </c>
       <c r="S2">
-        <v>0.8362508601063071</v>
+        <v>0.814971552874332</v>
       </c>
       <c r="T2">
-        <v>0.836250860106307</v>
+        <v>0.8149715528743319</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>206.926473</v>
+        <v>147.0057066666667</v>
       </c>
       <c r="H3">
-        <v>620.779419</v>
+        <v>441.01712</v>
       </c>
       <c r="I3">
-        <v>0.8815216823402787</v>
+        <v>0.8587975787179232</v>
       </c>
       <c r="J3">
-        <v>0.8815216823402787</v>
+        <v>0.8587975787179231</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01112833333333334</v>
+        <v>0.01112833333333333</v>
       </c>
       <c r="N3">
         <v>0.033385</v>
       </c>
       <c r="O3">
-        <v>0.0004292015602649839</v>
+        <v>0.000544649051871798</v>
       </c>
       <c r="P3">
-        <v>0.0004292015602649838</v>
+        <v>0.000544649051871798</v>
       </c>
       <c r="Q3">
-        <v>2.302746767035</v>
+        <v>1.635928505688889</v>
       </c>
       <c r="R3">
-        <v>20.724720903315</v>
+        <v>14.7233565512</v>
       </c>
       <c r="S3">
-        <v>0.0003783504814678611</v>
+        <v>0.0004677432869985127</v>
       </c>
       <c r="T3">
-        <v>0.000378350481467861</v>
+        <v>0.0004677432869985126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>206.926473</v>
+        <v>147.0057066666667</v>
       </c>
       <c r="H4">
-        <v>620.779419</v>
+        <v>441.01712</v>
       </c>
       <c r="I4">
-        <v>0.8815216823402787</v>
+        <v>0.8587975787179232</v>
       </c>
       <c r="J4">
-        <v>0.8815216823402787</v>
+        <v>0.8587975787179231</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4291193333333334</v>
+        <v>0.1557643333333334</v>
       </c>
       <c r="N4">
-        <v>1.287358</v>
+        <v>0.4672930000000001</v>
       </c>
       <c r="O4">
-        <v>0.01655042870210002</v>
+        <v>0.007623504250301878</v>
       </c>
       <c r="P4">
-        <v>0.01655042870210001</v>
+        <v>0.007623504250301877</v>
       </c>
       <c r="Q4">
-        <v>88.796150142778</v>
+        <v>22.89824589512889</v>
       </c>
       <c r="R4">
-        <v>799.165351285002</v>
+        <v>206.08421305616</v>
       </c>
       <c r="S4">
-        <v>0.01458956175292804</v>
+        <v>0.006547046991505049</v>
       </c>
       <c r="T4">
-        <v>0.01458956175292804</v>
+        <v>0.006547046991505047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>206.926473</v>
+        <v>147.0057066666667</v>
       </c>
       <c r="H5">
-        <v>620.779419</v>
+        <v>441.01712</v>
       </c>
       <c r="I5">
-        <v>0.8815216823402787</v>
+        <v>0.8587975787179232</v>
       </c>
       <c r="J5">
-        <v>0.8815216823402787</v>
+        <v>0.8587975787179231</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8912923333333334</v>
+        <v>0.8757959999999999</v>
       </c>
       <c r="N5">
-        <v>2.673877</v>
+        <v>2.627388</v>
       </c>
       <c r="O5">
-        <v>0.03437568310189169</v>
+        <v>0.04286369276918794</v>
       </c>
       <c r="P5">
-        <v>0.03437568310189169</v>
+        <v>0.04286369276918795</v>
       </c>
       <c r="Q5">
-        <v>184.431978948607</v>
+        <v>128.74700987584</v>
       </c>
       <c r="R5">
-        <v>1659.887810537463</v>
+        <v>1158.72308888256</v>
       </c>
       <c r="S5">
-        <v>0.03030290999957585</v>
+        <v>0.03681123556508756</v>
       </c>
       <c r="T5">
-        <v>0.03030290999957585</v>
+        <v>0.03681123556508756</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>17.280556</v>
       </c>
       <c r="I6">
-        <v>0.02453880449425047</v>
+        <v>0.03365062030176851</v>
       </c>
       <c r="J6">
-        <v>0.02453880449425047</v>
+        <v>0.03365062030176851</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.596449</v>
+        <v>19.38942866666667</v>
       </c>
       <c r="N6">
-        <v>73.78934699999999</v>
+        <v>58.16828600000001</v>
       </c>
       <c r="O6">
-        <v>0.9486446866357434</v>
+        <v>0.9489681539286383</v>
       </c>
       <c r="P6">
-        <v>0.9486446866357433</v>
+        <v>0.9489681539286383</v>
       </c>
       <c r="Q6">
-        <v>141.6801047818813</v>
+        <v>111.6867026274462</v>
       </c>
       <c r="R6">
-        <v>1275.120943036932</v>
+        <v>1005.180323647016</v>
       </c>
       <c r="S6">
-        <v>0.02327860649986401</v>
+        <v>0.03193336702632282</v>
       </c>
       <c r="T6">
-        <v>0.02327860649986401</v>
+        <v>0.03193336702632282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.280556</v>
       </c>
       <c r="I7">
-        <v>0.02453880449425047</v>
+        <v>0.03365062030176851</v>
       </c>
       <c r="J7">
-        <v>0.02453880449425047</v>
+        <v>0.03365062030176851</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.01112833333333334</v>
+        <v>0.01112833333333333</v>
       </c>
       <c r="N7">
         <v>0.033385</v>
       </c>
       <c r="O7">
-        <v>0.0004292015602649839</v>
+        <v>0.000544649051871798</v>
       </c>
       <c r="P7">
-        <v>0.0004292015602649838</v>
+        <v>0.000544649051871798</v>
       </c>
       <c r="Q7">
-        <v>0.06410126245111111</v>
+        <v>0.0641012624511111</v>
       </c>
       <c r="R7">
-        <v>0.57691136206</v>
+        <v>0.5769113620599998</v>
       </c>
       <c r="S7">
-        <v>1.05320931759697E-05</v>
+        <v>1.832777844225609E-05</v>
       </c>
       <c r="T7">
-        <v>1.05320931759697E-05</v>
+        <v>1.832777844225609E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>17.280556</v>
       </c>
       <c r="I8">
-        <v>0.02453880449425047</v>
+        <v>0.03365062030176851</v>
       </c>
       <c r="J8">
-        <v>0.02453880449425047</v>
+        <v>0.03365062030176851</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4291193333333334</v>
+        <v>0.1557643333333334</v>
       </c>
       <c r="N8">
-        <v>1.287358</v>
+        <v>0.4672930000000001</v>
       </c>
       <c r="O8">
-        <v>0.01655042870210002</v>
+        <v>0.007623504250301878</v>
       </c>
       <c r="P8">
-        <v>0.01655042870210001</v>
+        <v>0.007623504250301877</v>
       </c>
       <c r="Q8">
-        <v>2.471806890116444</v>
+        <v>0.8972314283231112</v>
       </c>
       <c r="R8">
-        <v>22.246262011048</v>
+        <v>8.075082854908</v>
       </c>
       <c r="S8">
-        <v>0.0004061277342168638</v>
+        <v>0.0002565356468958268</v>
       </c>
       <c r="T8">
-        <v>0.0004061277342168638</v>
+        <v>0.0002565356468958268</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>17.280556</v>
       </c>
       <c r="I9">
-        <v>0.02453880449425047</v>
+        <v>0.03365062030176851</v>
       </c>
       <c r="J9">
-        <v>0.02453880449425047</v>
+        <v>0.03365062030176851</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.8912923333333334</v>
+        <v>0.8757959999999999</v>
       </c>
       <c r="N9">
-        <v>2.673877</v>
+        <v>2.627388</v>
       </c>
       <c r="O9">
-        <v>0.03437568310189169</v>
+        <v>0.04286369276918794</v>
       </c>
       <c r="P9">
-        <v>0.03437568310189169</v>
+        <v>0.04286369276918795</v>
       </c>
       <c r="Q9">
-        <v>5.13400902617911</v>
+        <v>5.044747274191999</v>
       </c>
       <c r="R9">
-        <v>46.206081235612</v>
+        <v>45.40272546772799</v>
       </c>
       <c r="S9">
-        <v>0.0008435381669936297</v>
+        <v>0.001442389850107604</v>
       </c>
       <c r="T9">
-        <v>0.0008435381669936297</v>
+        <v>0.001442389850107604</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.28826266666667</v>
+        <v>14.74162533333333</v>
       </c>
       <c r="H10">
-        <v>60.864788</v>
+        <v>44.224876</v>
       </c>
       <c r="I10">
-        <v>0.08642946056342184</v>
+        <v>0.08611959650886204</v>
       </c>
       <c r="J10">
-        <v>0.08642946056342182</v>
+        <v>0.08611959650886204</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.596449</v>
+        <v>19.38942866666667</v>
       </c>
       <c r="N10">
-        <v>73.78934699999999</v>
+        <v>58.16828600000001</v>
       </c>
       <c r="O10">
-        <v>0.9486446866357434</v>
+        <v>0.9489681539286383</v>
       </c>
       <c r="P10">
-        <v>0.9486446866357433</v>
+        <v>0.9489681539286383</v>
       </c>
       <c r="Q10">
-        <v>499.0192179792706</v>
+        <v>285.831692831393</v>
       </c>
       <c r="R10">
-        <v>4491.172961813436</v>
+        <v>2572.485235482537</v>
       </c>
       <c r="S10">
-        <v>0.08199084853228365</v>
+        <v>0.08172475451609401</v>
       </c>
       <c r="T10">
-        <v>0.08199084853228363</v>
+        <v>0.08172475451609401</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>20.28826266666667</v>
+        <v>14.74162533333333</v>
       </c>
       <c r="H11">
-        <v>60.864788</v>
+        <v>44.224876</v>
       </c>
       <c r="I11">
-        <v>0.08642946056342184</v>
+        <v>0.08611959650886204</v>
       </c>
       <c r="J11">
-        <v>0.08642946056342182</v>
+        <v>0.08611959650886204</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,28 +1113,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01112833333333334</v>
+        <v>0.01112833333333333</v>
       </c>
       <c r="N11">
         <v>0.033385</v>
       </c>
       <c r="O11">
-        <v>0.0004292015602649839</v>
+        <v>0.000544649051871798</v>
       </c>
       <c r="P11">
-        <v>0.0004292015602649838</v>
+        <v>0.000544649051871798</v>
       </c>
       <c r="Q11">
-        <v>0.2257745497088889</v>
+        <v>0.1640497205844444</v>
       </c>
       <c r="R11">
-        <v>2.031970947380001</v>
+        <v>1.47644748526</v>
       </c>
       <c r="S11">
-        <v>3.709565932668155E-05</v>
+        <v>4.690495658613352E-05</v>
       </c>
       <c r="T11">
-        <v>3.709565932668152E-05</v>
+        <v>4.690495658613352E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.28826266666667</v>
+        <v>14.74162533333333</v>
       </c>
       <c r="H12">
-        <v>60.864788</v>
+        <v>44.224876</v>
       </c>
       <c r="I12">
-        <v>0.08642946056342184</v>
+        <v>0.08611959650886204</v>
       </c>
       <c r="J12">
-        <v>0.08642946056342182</v>
+        <v>0.08611959650886204</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4291193333333334</v>
+        <v>0.1557643333333334</v>
       </c>
       <c r="N12">
-        <v>1.287358</v>
+        <v>0.4672930000000001</v>
       </c>
       <c r="O12">
-        <v>0.01655042870210002</v>
+        <v>0.007623504250301878</v>
       </c>
       <c r="P12">
-        <v>0.01655042870210001</v>
+        <v>0.007623504250301877</v>
       </c>
       <c r="Q12">
-        <v>8.706085750011557</v>
+        <v>2.296219442296445</v>
       </c>
       <c r="R12">
-        <v>78.35477175010401</v>
+        <v>20.665974980668</v>
       </c>
       <c r="S12">
-        <v>0.001430444624815878</v>
+        <v>0.0006565331100195926</v>
       </c>
       <c r="T12">
-        <v>0.001430444624815878</v>
+        <v>0.0006565331100195924</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.28826266666667</v>
+        <v>14.74162533333333</v>
       </c>
       <c r="H13">
-        <v>60.864788</v>
+        <v>44.224876</v>
       </c>
       <c r="I13">
-        <v>0.08642946056342184</v>
+        <v>0.08611959650886204</v>
       </c>
       <c r="J13">
-        <v>0.08642946056342182</v>
+        <v>0.08611959650886204</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8912923333333334</v>
+        <v>0.8757959999999999</v>
       </c>
       <c r="N13">
-        <v>2.673877</v>
+        <v>2.627388</v>
       </c>
       <c r="O13">
-        <v>0.03437568310189169</v>
+        <v>0.04286369276918794</v>
       </c>
       <c r="P13">
-        <v>0.03437568310189169</v>
+        <v>0.04286369276918795</v>
       </c>
       <c r="Q13">
-        <v>18.08277297145289</v>
+        <v>12.910656500432</v>
       </c>
       <c r="R13">
-        <v>162.744956743076</v>
+        <v>116.195908503888</v>
       </c>
       <c r="S13">
-        <v>0.002971071746995634</v>
+        <v>0.003691403926162293</v>
       </c>
       <c r="T13">
-        <v>0.002971071746995633</v>
+        <v>0.003691403926162294</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.762893333333333</v>
+        <v>3.668683333333334</v>
       </c>
       <c r="H14">
-        <v>5.288679999999999</v>
+        <v>11.00605</v>
       </c>
       <c r="I14">
-        <v>0.00751005260204895</v>
+        <v>0.02143220447144637</v>
       </c>
       <c r="J14">
-        <v>0.007510052602048949</v>
+        <v>0.02143220447144637</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.596449</v>
+        <v>19.38942866666667</v>
       </c>
       <c r="N14">
-        <v>73.78934699999999</v>
+        <v>58.16828600000001</v>
       </c>
       <c r="O14">
-        <v>0.9486446866357434</v>
+        <v>0.9489681539286383</v>
       </c>
       <c r="P14">
-        <v>0.9486446866357433</v>
+        <v>0.9489681539286383</v>
       </c>
       <c r="Q14">
-        <v>43.36091596577332</v>
+        <v>71.13367379225558</v>
       </c>
       <c r="R14">
-        <v>390.2482436919599</v>
+        <v>640.2030641303002</v>
       </c>
       <c r="S14">
-        <v>0.007124371497288676</v>
+        <v>0.02033847951188957</v>
       </c>
       <c r="T14">
-        <v>0.007124371497288675</v>
+        <v>0.02033847951188957</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.762893333333333</v>
+        <v>3.668683333333334</v>
       </c>
       <c r="H15">
-        <v>5.288679999999999</v>
+        <v>11.00605</v>
       </c>
       <c r="I15">
-        <v>0.00751005260204895</v>
+        <v>0.02143220447144637</v>
       </c>
       <c r="J15">
-        <v>0.007510052602048949</v>
+        <v>0.02143220447144637</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1361,28 +1361,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.01112833333333334</v>
+        <v>0.01112833333333333</v>
       </c>
       <c r="N15">
         <v>0.033385</v>
       </c>
       <c r="O15">
-        <v>0.0004292015602649839</v>
+        <v>0.000544649051871798</v>
       </c>
       <c r="P15">
-        <v>0.0004292015602649838</v>
+        <v>0.000544649051871798</v>
       </c>
       <c r="Q15">
-        <v>0.01961806464444445</v>
+        <v>0.04082633102777778</v>
       </c>
       <c r="R15">
-        <v>0.1765625818</v>
+        <v>0.36743697925</v>
       </c>
       <c r="S15">
-        <v>3.223326294471511E-06</v>
+        <v>1.167302984489577E-05</v>
       </c>
       <c r="T15">
-        <v>3.22332629447151E-06</v>
+        <v>1.167302984489577E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.762893333333333</v>
+        <v>3.668683333333334</v>
       </c>
       <c r="H16">
-        <v>5.288679999999999</v>
+        <v>11.00605</v>
       </c>
       <c r="I16">
-        <v>0.00751005260204895</v>
+        <v>0.02143220447144637</v>
       </c>
       <c r="J16">
-        <v>0.007510052602048949</v>
+        <v>0.02143220447144637</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4291193333333334</v>
+        <v>0.1557643333333334</v>
       </c>
       <c r="N16">
-        <v>1.287358</v>
+        <v>0.4672930000000001</v>
       </c>
       <c r="O16">
-        <v>0.01655042870210002</v>
+        <v>0.007623504250301878</v>
       </c>
       <c r="P16">
-        <v>0.01655042870210001</v>
+        <v>0.007623504250301877</v>
       </c>
       <c r="Q16">
-        <v>0.7564916119377778</v>
+        <v>0.571450013627778</v>
       </c>
       <c r="R16">
-        <v>6.808424507439999</v>
+        <v>5.143050122650002</v>
       </c>
       <c r="S16">
-        <v>0.0001242945901392319</v>
+        <v>0.0001633885018814103</v>
       </c>
       <c r="T16">
-        <v>0.0001242945901392318</v>
+        <v>0.0001633885018814103</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.762893333333333</v>
+        <v>3.668683333333334</v>
       </c>
       <c r="H17">
-        <v>5.288679999999999</v>
+        <v>11.00605</v>
       </c>
       <c r="I17">
-        <v>0.00751005260204895</v>
+        <v>0.02143220447144637</v>
       </c>
       <c r="J17">
-        <v>0.007510052602048949</v>
+        <v>0.02143220447144637</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8912923333333334</v>
+        <v>0.8757959999999999</v>
       </c>
       <c r="N17">
-        <v>2.673877</v>
+        <v>2.627388</v>
       </c>
       <c r="O17">
-        <v>0.03437568310189169</v>
+        <v>0.04286369276918794</v>
       </c>
       <c r="P17">
-        <v>0.03437568310189169</v>
+        <v>0.04286369276918795</v>
       </c>
       <c r="Q17">
-        <v>1.571253312484444</v>
+        <v>3.2130181886</v>
       </c>
       <c r="R17">
-        <v>14.14127981236</v>
+        <v>28.9171636974</v>
       </c>
       <c r="S17">
-        <v>0.0002581631883265718</v>
+        <v>0.0009186634278304932</v>
       </c>
       <c r="T17">
-        <v>0.0002581631883265718</v>
+        <v>0.0009186634278304934</v>
       </c>
     </row>
   </sheetData>
